--- a/Zsuzsi_Schliffer/Training/motor/Zsuzsi - UI Fields list motor v1.xlsx
+++ b/Zsuzsi_Schliffer/Training/motor/Zsuzsi - UI Fields list motor v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsuzsa\Desktop\Training\motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsuzsa\Documents\git_sandbox\Zsuzsi_Schliffer\Training\motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB5B4A-0A56-47D7-9BDC-0F0C03621410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CD7D8-F746-4545-A5ED-149918B22F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-24165" yWindow="1245" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Field List Specification" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>Wich is the type of car?</t>
   </si>
   <si>
-    <t>Product.CarSearcher</t>
-  </si>
-  <si>
     <t>Product.CarDetail</t>
   </si>
   <si>
@@ -556,6 +553,9 @@
   </si>
   <si>
     <t>Driver2.ZipCode</t>
+  </si>
+  <si>
+    <t>Product.MotorFlexdata</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,9 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -814,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -823,13 +829,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1143,9 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E27" sqref="E27"/>
+      <selection pane="topRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,11 +1186,11 @@
     <col min="16" max="16" width="32.140625" customWidth="1"/>
     <col min="17" max="17" width="85" customWidth="1"/>
     <col min="18" max="18" width="38.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="14"/>
-    <col min="20" max="20" width="9.140625" style="15"/>
+    <col min="19" max="19" width="9.140625" style="13"/>
+    <col min="20" max="20" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1223,11 +1242,11 @@
       <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
@@ -1249,463 +1268,487 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="Q4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="J7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+    </row>
+    <row r="14" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="H14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1725,20 +1768,20 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="20" t="s">
-        <v>102</v>
+      <c r="E16" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
@@ -1761,22 +1804,22 @@
         <v>18</v>
       </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="20" t="s">
-        <v>103</v>
+      <c r="E17" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
@@ -1799,22 +1842,22 @@
         <v>18</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="20" t="s">
-        <v>104</v>
+      <c r="E18" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
@@ -1829,7 +1872,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1838,22 +1881,22 @@
         <v>18</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="20" t="s">
-        <v>105</v>
+      <c r="E19" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>14</v>
@@ -1869,7 +1912,7 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1878,22 +1921,22 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="20" t="s">
-        <v>106</v>
+      <c r="E20" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
@@ -1908,7 +1951,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1918,24 +1961,24 @@
         <v>17</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>15</v>
@@ -1958,24 +2001,24 @@
         <v>18</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
@@ -1990,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2000,22 +2043,22 @@
         <v>17</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="20" t="s">
-        <v>109</v>
+      <c r="E23" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
@@ -2032,30 +2075,30 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="20" t="s">
-        <v>110</v>
+      <c r="E24" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
@@ -2078,22 +2121,22 @@
         <v>18</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="20" t="s">
-        <v>111</v>
+      <c r="E25" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>15</v>
@@ -2108,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="19"/>
@@ -2118,22 +2161,22 @@
         <v>18</v>
       </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="20" t="s">
-        <v>112</v>
+      <c r="E26" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>14</v>
@@ -2149,7 +2192,7 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="4"/>
@@ -2158,22 +2201,22 @@
         <v>17</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="20" t="s">
-        <v>113</v>
+      <c r="E27" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>15</v>
@@ -2188,7 +2231,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="19"/>
@@ -2198,24 +2241,24 @@
         <v>17</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
@@ -2238,24 +2281,24 @@
         <v>18</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>15</v>
@@ -2270,7 +2313,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="19"/>
@@ -2280,22 +2323,22 @@
         <v>17</v>
       </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>14</v>
@@ -2307,10 +2350,10 @@
         <v>21</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2320,109 +2363,115 @@
         <v>18</v>
       </c>
       <c r="Q30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>28</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
+    </row>
+    <row r="34" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2442,7 +2491,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="18"/>
     </row>
-    <row r="35" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -2450,10 +2499,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>14</v>
@@ -2467,8 +2516,8 @@
       <c r="J35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>78</v>
+      <c r="K35" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2478,9 +2527,9 @@
         <v>18</v>
       </c>
       <c r="Q35" s="4"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -2488,10 +2537,10 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>15</v>
@@ -2501,7 +2550,7 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -2510,9 +2559,9 @@
         <v>18</v>
       </c>
       <c r="Q36" s="6"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2530,9 +2579,9 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2550,9 +2599,9 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2570,9 +2619,9 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2590,9 +2639,9 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2610,10 +2659,10 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2630,9 +2679,9 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2650,9 +2699,9 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="6"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2670,9 +2719,9 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2690,9 +2739,9 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R45" s="11"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2710,9 +2759,9 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2730,9 +2779,9 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2750,7 +2799,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="12"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -2770,7 +2819,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="12"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2790,7 +2839,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="12"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -2810,7 +2859,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="12"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -2830,7 +2879,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="12"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2850,7 +2899,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="12"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -2870,7 +2919,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="12"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2890,7 +2939,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="12"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -2910,7 +2959,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="12"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -2930,7 +2979,7 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="12"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -2950,7 +2999,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-      <c r="R58" s="12"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -2970,7 +3019,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="12"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -2990,7 +3039,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="12"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -3010,7 +3059,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="12"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -3030,7 +3079,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="12"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -3050,7 +3099,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="12"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -3070,7 +3119,7 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
-      <c r="R64" s="12"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -3090,7 +3139,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="12"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -3110,7 +3159,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
-      <c r="R66" s="12"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -3130,7 +3179,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-      <c r="R67" s="12"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -3150,7 +3199,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-      <c r="R68" s="12"/>
+      <c r="R68" s="11"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -3170,7 +3219,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="12"/>
+      <c r="R69" s="11"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -3190,7 +3239,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="12"/>
+      <c r="R70" s="11"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -3210,7 +3259,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="12"/>
+      <c r="R71" s="11"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -3230,7 +3279,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
-      <c r="R72" s="12"/>
+      <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -3250,7 +3299,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="13"/>
+      <c r="R73" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3313,7 +3362,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3462,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3428,6 +3477,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A20763880C36C149B9EA253F24270F83" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c058d61a230b41fd40848f58d9a4c9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48207998065e64ae3aa61cf90342865c">
     <xsd:element name="properties">
@@ -3541,15 +3599,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C2522A-973B-457D-9E35-D7F6FF2370A5}">
   <ds:schemaRefs>
@@ -3566,6 +3615,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C217EF5C-E2CE-4163-BACB-A2A5D9BD4BE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3579,12 +3636,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Zsuzsi_Schliffer/Training/motor/Zsuzsi - UI Fields list motor v1.xlsx
+++ b/Zsuzsi_Schliffer/Training/motor/Zsuzsi - UI Fields list motor v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsuzsa\Documents\git_sandbox\Zsuzsi_Schliffer\Training\motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CD7D8-F746-4545-A5ED-149918B22F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F5B55A-01F8-408D-A1C1-1C58E0622969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24165" yWindow="1245" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Field List Specification" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>Plate Number</t>
-  </si>
-  <si>
-    <t>CJF-******</t>
   </si>
   <si>
     <t>min:TODAY max:TODAY+2WEEKS</t>
@@ -471,9 +468,6 @@
     <t>MotorCreatePolicy:Summary.Home</t>
   </si>
   <si>
-    <t>populated based on ID 15</t>
-  </si>
-  <si>
     <t>flex data</t>
   </si>
   <si>
@@ -504,9 +498,6 @@
     <t>Product.Package</t>
   </si>
   <si>
-    <t>only visible if at ID 7 you have chosen 2 drivers</t>
-  </si>
-  <si>
     <t>1 Selection table atri</t>
   </si>
   <si>
@@ -556,6 +547,48 @@
   </si>
   <si>
     <t>Product.MotorFlexdata</t>
+  </si>
+  <si>
+    <t>Product.EndDate</t>
+  </si>
+  <si>
+    <t>(End date of the policy)</t>
+  </si>
+  <si>
+    <t>Product.PlateZH</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>6digit</t>
+  </si>
+  <si>
+    <t>Driver1.ZipCodeCity</t>
+  </si>
+  <si>
+    <t>(City)</t>
+  </si>
+  <si>
+    <t>Driver2.ZipCodeCity</t>
+  </si>
+  <si>
+    <t>populated based on ID 25</t>
+  </si>
+  <si>
+    <t>populated based on ID 17</t>
+  </si>
+  <si>
+    <t>populated based on ID 29</t>
+  </si>
+  <si>
+    <t>populated based on ID 21</t>
+  </si>
+  <si>
+    <t>populated based on ID1 +1YEAR-1DAY</t>
+  </si>
+  <si>
+    <t>only visible if at ID 8 you have chosen 2 drivers</t>
   </si>
 </sst>
 </file>
@@ -651,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,26 +709,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -771,12 +786,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,12 +822,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -814,36 +834,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,11 +1180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E30" sqref="E30"/>
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,8 +1206,8 @@
     <col min="16" max="16" width="32.140625" customWidth="1"/>
     <col min="17" max="17" width="85" customWidth="1"/>
     <col min="18" max="18" width="38.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="13"/>
-    <col min="20" max="20" width="9.140625" style="14"/>
+    <col min="19" max="19" width="9.140625" style="11"/>
+    <col min="20" max="20" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1201,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1242,1404 +1262,1503 @@
       <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17"/>
+    </row>
+    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-    </row>
-    <row r="4" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
+      <c r="K22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="I23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-    </row>
-    <row r="9" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23"/>
-    </row>
-    <row r="11" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23"/>
-    </row>
-    <row r="13" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="23"/>
-    </row>
-    <row r="14" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23"/>
-    </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="16" t="s">
+      <c r="E24" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6" t="s">
+      <c r="Q26" s="23"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="16" t="s">
+      <c r="E31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="I31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="I34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" s="18" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="K39" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4" t="s">
+      <c r="H40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>28</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="23"/>
-    </row>
-    <row r="32" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>29</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="23"/>
-    </row>
-    <row r="33" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>30</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="23"/>
-    </row>
-    <row r="34" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-    </row>
-    <row r="35" spans="1:20" ht="180" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="11"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="17"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -2659,10 +2778,10 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
+      <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2679,7 +2798,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -2698,8 +2817,8 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="11"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="9"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -2719,15 +2838,15 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="11"/>
+      <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2738,11 +2857,11 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="11"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2759,7 +2878,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="11"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -2778,8 +2897,8 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="11"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -2799,15 +2918,15 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="11"/>
+      <c r="R48" s="9"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2818,8 +2937,8 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="11"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2839,7 +2958,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="11"/>
+      <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -2859,7 +2978,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="11"/>
+      <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -2879,7 +2998,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="11"/>
+      <c r="R52" s="9"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2899,15 +3018,15 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="11"/>
+      <c r="R53" s="9"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -2919,7 +3038,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="11"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2939,7 +3058,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="11"/>
+      <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -2959,7 +3078,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="11"/>
+      <c r="R56" s="9"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -2979,15 +3098,15 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="11"/>
+      <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -2999,7 +3118,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-      <c r="R58" s="11"/>
+      <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -3019,7 +3138,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="11"/>
+      <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -3039,7 +3158,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="11"/>
+      <c r="R60" s="9"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -3059,7 +3178,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="11"/>
+      <c r="R61" s="9"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -3079,7 +3198,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="11"/>
+      <c r="R62" s="9"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -3099,7 +3218,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="11"/>
+      <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -3119,7 +3238,7 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
-      <c r="R64" s="11"/>
+      <c r="R64" s="9"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -3139,7 +3258,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="11"/>
+      <c r="R65" s="9"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -3159,7 +3278,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
-      <c r="R66" s="11"/>
+      <c r="R66" s="9"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -3179,7 +3298,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-      <c r="R67" s="11"/>
+      <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -3199,7 +3318,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-      <c r="R68" s="11"/>
+      <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -3219,7 +3338,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-      <c r="R69" s="11"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -3239,7 +3358,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="11"/>
+      <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -3259,7 +3378,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="11"/>
+      <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -3279,15 +3398,15 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
-      <c r="R72" s="11"/>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3299,14 +3418,94 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="12"/>
+      <c r="R73" s="9"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="9"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="9"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="M23:M29"/>
-    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="M26:M33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3319,37 +3518,37 @@
           <x14:formula1>
             <xm:f>'Values for cells'!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G14 G35:G73 G16:G33</xm:sqref>
+          <xm:sqref>G3:G16 G39:G77 G18:G37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Values for cells'!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H14 H35:H73 H16:H33</xm:sqref>
+          <xm:sqref>H3:H16 H39:H77 H18:H37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Values for cells'!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I14 I35:I73 I16:I33</xm:sqref>
+          <xm:sqref>I3:I16 I39:I77 I18:I37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Values for cells'!$E$3:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J51:J73 J16:J19</xm:sqref>
+          <xm:sqref>J55:J77 J18:J21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>'Values for cells'!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P14 P35:P73 P16:P33</xm:sqref>
+          <xm:sqref>P3:P16 P39:P77 P18:P37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5AD951A3-4082-41E9-B625-A8700D773304}">
           <x14:formula1>
             <xm:f>'Values for cells'!$E$3:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J20:J33 J35:J50 J3:J14</xm:sqref>
+          <xm:sqref>J22:J37 J39:J54 J3:J16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3462,7 +3661,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3471,21 +3670,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A20763880C36C149B9EA253F24270F83" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c058d61a230b41fd40848f58d9a4c9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48207998065e64ae3aa61cf90342865c">
     <xsd:element name="properties">
@@ -3599,17 +3783,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C2522A-973B-457D-9E35-D7F6FF2370A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C217EF5C-E2CE-4163-BACB-A2A5D9BD4BE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3623,17 +3823,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C217EF5C-E2CE-4163-BACB-A2A5D9BD4BE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C2522A-973B-457D-9E35-D7F6FF2370A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>